--- a/data/trans_orig/P12_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A801E7F-0E14-459E-A6C8-360FF3D0997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EF3202-BC7E-4757-B425-10653488FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B6DC5DC-C666-407E-A8D3-78A2FB31110A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F9F9073-3190-41A3-BDBE-9A7BCA258734}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
   </si>
   <si>
     <t>36,82%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,18%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>63,18%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>13,97%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>15,36%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>29,67%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>70,33%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,211 +311,217 @@
     <t>27,49%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>32,23%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>64,32%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>67,77%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>10,23%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>82,72%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>74,56%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
@@ -524,181 +530,172 @@
     <t>28,69%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>38,2%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>61,8%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>13,09%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>86,91%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>17,98%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,1%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>88,37%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>82,02%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>88,9%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>14,43%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>18,12%</t>
+    <t>18,07%</t>
   </si>
   <si>
     <t>20,05%</t>
@@ -707,19 +704,16 @@
     <t>84,4%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>85,57%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
   </si>
   <si>
     <t>80,97%</t>
@@ -728,7 +722,7 @@
     <t>79,95%</t>
   </si>
   <si>
-    <t>81,88%</t>
+    <t>81,93%</t>
   </si>
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
@@ -737,73 +731,73 @@
     <t>28,51%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
   </si>
   <si>
     <t>71,49%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>64,63%</t>
   </si>
   <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>16,52%</t>
@@ -812,130 +806,136 @@
     <t>14,96%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
     <t>86,0%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
     <t>85,04%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>15,93%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB008A7A-91B4-4108-94A5-0355BAA1D86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BCADE-371A-445E-BFE3-A76FBC407598}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,7 +1963,7 @@
         <v>1603</v>
       </c>
       <c r="N13" s="7">
-        <v>1641784</v>
+        <v>1641785</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2065,7 +2065,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC5902E-6B65-4759-9942-C1CE32453257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E509E72-7990-4A6A-8800-CFAFCC5D6DE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2687,13 +2687,13 @@
         <v>590523</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>835</v>
@@ -2702,13 +2702,13 @@
         <v>902432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1375</v>
@@ -2717,13 +2717,13 @@
         <v>1492955</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2738,13 @@
         <v>2826225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2453</v>
@@ -2753,13 +2753,13 @@
         <v>2644838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5112</v>
@@ -2768,13 +2768,13 @@
         <v>5471063</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FF353A-D21B-4A0F-B470-B853F1753B85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB13CB77-D97F-495F-A5C1-DAE1A5E1636D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2973,13 @@
         <v>216121</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>331</v>
@@ -2988,13 +2988,13 @@
         <v>379106</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>558</v>
@@ -3003,13 +3003,13 @@
         <v>595226</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3024,13 @@
         <v>537239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>559</v>
@@ -3039,13 +3039,13 @@
         <v>613438</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1093</v>
@@ -3054,13 +3054,13 @@
         <v>1150678</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3128,13 @@
         <v>246426</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>303</v>
@@ -3143,13 +3143,13 @@
         <v>327844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>535</v>
@@ -3158,13 +3158,13 @@
         <v>574270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3179,13 @@
         <v>1826836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>1602</v>
@@ -3194,13 +3194,13 @@
         <v>1657422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>3319</v>
@@ -3209,10 +3209,10 @@
         <v>3484258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>195</v>
@@ -3301,10 +3301,10 @@
         <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -3313,13 +3313,13 @@
         <v>143453</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3355,7 @@
         <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>889</v>
@@ -3364,10 +3364,10 @@
         <v>951503</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>211</v>
@@ -3444,7 +3444,7 @@
         <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>710</v>
@@ -3453,13 +3453,13 @@
         <v>786816</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>1230</v>
@@ -3468,13 +3468,13 @@
         <v>1312950</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3489,13 @@
         <v>2847374</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2610</v>
@@ -3504,13 +3504,13 @@
         <v>2739064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5301</v>
@@ -3519,13 +3519,13 @@
         <v>5586438</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0D38DD-7B64-4D04-8812-252302F7811B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF4CA4-3C49-4871-8753-4D2EB322A006}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3724,13 @@
         <v>154148</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>506</v>
@@ -3739,13 +3739,13 @@
         <v>295264</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>712</v>
@@ -3754,13 +3754,13 @@
         <v>449413</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3775,13 @@
         <v>386513</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>919</v>
@@ -3790,13 +3790,13 @@
         <v>539575</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1403</v>
@@ -3805,13 +3805,13 @@
         <v>926087</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3879,13 @@
         <v>302641</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>704</v>
@@ -3894,13 +3894,13 @@
         <v>425767</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>1048</v>
@@ -3909,13 +3909,13 @@
         <v>728408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3930,13 @@
         <v>1859381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>2215</v>
@@ -3945,28 +3945,28 @@
         <v>1822643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>3863</v>
       </c>
       <c r="N8" s="7">
-        <v>3682024</v>
+        <v>3682025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4008,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4410432</v>
+        <v>4410433</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4034,13 +4034,13 @@
         <v>110239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -4049,13 +4049,13 @@
         <v>134848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>333</v>
@@ -4064,13 +4064,13 @@
         <v>245087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4085,13 @@
         <v>562800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -4100,13 +4100,13 @@
         <v>577350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1351</v>
@@ -4115,13 +4115,13 @@
         <v>1140150</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4189,13 @@
         <v>567028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1418</v>
@@ -4204,13 +4204,13 @@
         <v>855879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2093</v>
@@ -4219,13 +4219,13 @@
         <v>1422908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4240,13 @@
         <v>2808694</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>3929</v>
@@ -4255,13 +4255,13 @@
         <v>2939569</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>6617</v>
@@ -4270,7 +4270,7 @@
         <v>5748262</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>297</v>

--- a/data/trans_orig/P12_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EF3202-BC7E-4757-B425-10653488FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75A04FB-FFE1-444D-88D3-8D630CA38CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F9F9073-3190-41A3-BDBE-9A7BCA258734}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F432657-4057-42C3-BDD4-11112BDB551A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>36,82%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,18%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
   </si>
   <si>
     <t>63,18%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>13,97%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,61 +197,61 @@
     <t>15,36%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>18,15%</t>
+    <t>18,17%</t>
   </si>
   <si>
     <t>21,02%</t>
@@ -260,19 +260,19 @@
     <t>29,67%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>80,49%</t>
@@ -281,25 +281,25 @@
     <t>78,98%</t>
   </si>
   <si>
-    <t>81,85%</t>
+    <t>81,83%</t>
   </si>
   <si>
     <t>70,33%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,16 +311,16 @@
     <t>27,49%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>33,28%</t>
+    <t>33,01%</t>
   </si>
   <si>
     <t>38,53%</t>
@@ -329,19 +329,19 @@
     <t>32,23%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>64,32%</t>
@@ -350,481 +350,499 @@
     <t>61,47%</t>
   </si>
   <si>
-    <t>66,72%</t>
+    <t>66,99%</t>
   </si>
   <si>
     <t>67,77%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>15,16%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>82,23%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
   </si>
   <si>
     <t>85,04%</t>
@@ -1347,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BCADE-371A-445E-BFE3-A76FBC407598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202882C-D767-410E-90C2-465713E2EF30}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1674,7 +1692,7 @@
         <v>1416</v>
       </c>
       <c r="D8" s="7">
-        <v>1456875</v>
+        <v>1456876</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1725,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1984,7 +2002,7 @@
         <v>2580</v>
       </c>
       <c r="D14" s="7">
-        <v>2637326</v>
+        <v>2637325</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2035,7 +2053,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E509E72-7990-4A6A-8800-CFAFCC5D6DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E17B07C-981C-4938-A5DB-AB7A5D1A911A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB13CB77-D97F-495F-A5C1-DAE1A5E1636D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED0071E-FDA2-4CB2-BBB4-B2ABADFD3093}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3164,7 +3182,7 @@
         <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3197,13 @@
         <v>1826836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1602</v>
@@ -3194,13 +3212,13 @@
         <v>1657422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3319</v>
@@ -3209,13 +3227,13 @@
         <v>3484258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3301,13 @@
         <v>63587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3298,13 +3316,13 @@
         <v>79866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -3313,13 +3331,13 @@
         <v>143453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3352,13 @@
         <v>483299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>449</v>
@@ -3349,13 +3367,13 @@
         <v>468204</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>889</v>
@@ -3364,13 +3382,13 @@
         <v>951503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3456,13 @@
         <v>526134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>710</v>
@@ -3453,13 +3471,13 @@
         <v>786816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1230</v>
@@ -3468,13 +3486,13 @@
         <v>1312950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3507,13 @@
         <v>2847374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2610</v>
@@ -3504,13 +3522,13 @@
         <v>2739064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>5301</v>
@@ -3519,13 +3537,13 @@
         <v>5586438</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF4CA4-3C49-4871-8753-4D2EB322A006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED4D28D-911A-4172-B3A7-96413EA3ACB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3742,13 @@
         <v>154148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>506</v>
@@ -3739,13 +3757,13 @@
         <v>295264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>712</v>
@@ -3754,13 +3772,13 @@
         <v>449413</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3793,13 @@
         <v>386513</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>919</v>
@@ -3790,13 +3808,13 @@
         <v>539575</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>1403</v>
@@ -3805,13 +3823,13 @@
         <v>926087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3897,13 @@
         <v>302641</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>704</v>
@@ -3894,13 +3912,13 @@
         <v>425767</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>1048</v>
@@ -3909,13 +3927,13 @@
         <v>728408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3948,13 @@
         <v>1859381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2215</v>
@@ -3945,13 +3963,13 @@
         <v>1822643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3863</v>
@@ -3960,13 +3978,13 @@
         <v>3682025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4052,13 @@
         <v>110239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -4049,13 +4067,13 @@
         <v>134848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>333</v>
@@ -4064,13 +4082,13 @@
         <v>245087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4103,13 @@
         <v>562800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>795</v>
@@ -4100,13 +4118,13 @@
         <v>577350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1351</v>
@@ -4115,13 +4133,13 @@
         <v>1140150</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4207,13 @@
         <v>567028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>1418</v>
@@ -4204,13 +4222,13 @@
         <v>855879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>2093</v>
@@ -4219,13 +4237,13 @@
         <v>1422908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4258,13 @@
         <v>2808694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3929</v>
@@ -4255,13 +4273,13 @@
         <v>2939569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>6617</v>
@@ -4270,13 +4288,13 @@
         <v>5748262</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
